--- a/Super Powers Descriptor List.xlsx
+++ b/Super Powers Descriptor List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gregory\Documents\Gregory's stuff\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gregory\Desktop\FamilySearchPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -716,7 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
